--- a/resob11211050.xlsx
+++ b/resob11211050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{56583AE0-EF72-4AE7-8186-B3B1B5C74779}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ADE102FA-9750-4B40-A2B7-400FECA23D58}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,42 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>classweight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>f10-23-1119</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21维特征集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,6 +66,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -57,8 +91,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +110,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,13 +142,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -110,8 +160,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -413,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -489,7 +541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -559,8 +611,11 @@
       <c r="W2">
         <v>23.61126953347781</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -630,8 +685,11 @@
       <c r="W3">
         <v>42.108093573541282</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -701,8 +759,11 @@
       <c r="W4">
         <v>27.263999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -773,7 +834,7 @@
         <v>12.863949179460031</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -841,8 +902,11 @@
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -912,8 +976,11 @@
       <c r="W7">
         <v>20.589157004073961</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,7 +1051,7 @@
         <v>40.855726584920433</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1054,8 +1121,11 @@
       <c r="W9">
         <v>13.206162876008809</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1125,8 +1195,11 @@
       <c r="W10">
         <v>8.5117773019271947</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1197,7 +1270,7 @@
         <v>33.426517571884979</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1268,7 +1341,7 @@
         <v>2.1100090171325521</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1339,7 +1412,7 @@
         <v>17.92628443782576</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1410,7 +1483,7 @@
         <v>18.827826664452932</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1481,7 +1554,7 @@
         <v>7.2443181818181817</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/resob11211050.xlsx
+++ b/resob11211050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ADE102FA-9750-4B40-A2B7-400FECA23D58}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E4BD5B4B-C8EA-4D6B-9C66-D62C06DE212F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="4080" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C5700"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -114,7 +114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -151,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -160,12 +160,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,32 +544,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <v>7652.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1059.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.86585365853658536</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.82005048854266449</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.75012065217661184</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0.81927547399939216</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.86399859279880076</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0.63548391413735883</v>
       </c>
       <c r="J2" s="3">
@@ -578,69 +581,69 @@
       <c r="L2" s="3">
         <v>0.63548391413735883</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="5">
         <v>0.78260869565217395</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="5">
         <v>0.87378640776699035</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>25</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>13</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>103</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>2116</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>15408</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>16222</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <v>1666</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
         <v>21.14748488650622</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>23.61126953347781</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>8798.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>2303.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.79449986272535922</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.91542400988016603</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.69985259671417843</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.82271470120586887</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.70147755522108968</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.5952618486436837</v>
       </c>
       <c r="J3" s="3">
@@ -652,69 +655,69 @@
       <c r="L3" s="3">
         <v>0.5952618486436837</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="5">
         <v>0.84674329501915713</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="5">
         <v>0.88400000000000001</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>40</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>29</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>250</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>4607</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>17697</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <v>19571</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <v>3601</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="3">
         <v>40.333422963162143</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>42.108093573541282</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>8387</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>933</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.86057955166757794</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.86927642034167651</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.68171716876201827</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.79790920541732102</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.85473756382528032</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.51758911030030874</v>
       </c>
       <c r="J4" s="3">
@@ -726,69 +729,69 @@
       <c r="L4" s="3">
         <v>0.51267751894470948</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="5">
         <v>0.80281690140845074</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="5">
         <v>0.89763779527559051</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>28</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>13</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>127</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>1853</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
         <v>16887</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="3">
         <v>17006</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="3">
         <v>1531</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="3">
         <v>24.384</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="3">
         <v>27.263999999999999</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>10596</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>683</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.82522931694719026</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.64118935186655857</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.53874578260508577</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.83389635296667264</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0.74382974545878466</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.53395275586106461</v>
       </c>
       <c r="J5" s="3">
@@ -800,66 +803,66 @@
       <c r="L5" s="3">
         <v>0.53395275586106461</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="5">
         <v>0.58024691358024694</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="5">
         <v>0.71212121212121215</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>34</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>19</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>66</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <v>1366</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="3">
         <v>21292</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="3">
         <v>21206</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="3">
         <v>848</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="3">
         <v>10.48173636844891</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="3">
         <v>12.863949179460031</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>8991</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>113</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.94281246509549876</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3">
@@ -871,38 +874,38 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
         <v>16</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>16</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>208</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>18098</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>18080</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
         <v>3.1447914391788601</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -943,10 +946,10 @@
       <c r="L7" s="3">
         <v>0.17740782178351819</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="5">
         <v>0.32191780821917798</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="5">
         <v>0.6619718309859155</v>
       </c>
       <c r="O7">
@@ -980,32 +983,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>9845</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>1600</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.73216826752045527</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.84757909856101277</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.55270111771525343</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.69624592896920467</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.72454146528013341</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>0.41617694832253882</v>
       </c>
       <c r="J8" s="3">
@@ -1017,66 +1020,66 @@
       <c r="L8" s="3">
         <v>0.41617694832253882</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="5">
         <v>0.6015325670498084</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="5">
         <v>0.80927835051546393</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>104</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>37</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>194</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <v>3173</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="3">
         <v>19815</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="3">
         <v>18595</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="3">
         <v>2251</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="3">
         <v>30.367858074615182</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="3">
         <v>40.855726584920433</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>7446.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>677.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.88156717371852233</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.75043126486223533</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.70273522797196708</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.77668697587625624</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.87848239032955555</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0.57243158222745416</v>
       </c>
       <c r="J9" s="3">
@@ -1088,69 +1091,69 @@
       <c r="L9" s="3">
         <v>0.5648732298926189</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="5">
         <v>0.76666666666666661</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="5">
         <v>0.77966101694915257</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>14</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>13</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>59</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <v>1336</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="3">
         <v>15010</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="3">
         <v>15251</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="3">
         <v>1041</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="3">
         <v>12.986060161408661</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="3">
         <v>13.206162876008809</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>10540.5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>613.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.7941809378642517</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.42911056827434713</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.54493832857862057</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.63328645261223182</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0.56697526760188821</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.20514184968985499</v>
       </c>
       <c r="J10" s="3">
@@ -1162,40 +1165,40 @@
       <c r="L10" s="3">
         <v>0.20514184968985499</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="5">
         <v>0.41509433962264147</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="5">
         <v>0.33846153846153848</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>31</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>43</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>65</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>1227</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>21179</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="3">
         <v>20362</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="3">
         <v>355</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="3">
         <v>10.4389721627409</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="3">
         <v>8.5117773019271947</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Y10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1236,10 +1239,10 @@
       <c r="L11" s="3">
         <v>0.70604479407236331</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="5">
         <v>0.75268817204301075</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="5">
         <v>0.90909090909090906</v>
       </c>
       <c r="O11">
@@ -1307,10 +1310,10 @@
       <c r="L12" s="3">
         <v>0.62139664804469275</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="5">
         <v>0.76923076923076916</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="5">
         <v>0.27027027027027029</v>
       </c>
       <c r="O12">
@@ -1378,10 +1381,10 @@
       <c r="L13" s="3">
         <v>0.37514305882746057</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="5">
         <v>0.46728971962616828</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="5">
         <v>0.83333333333333337</v>
       </c>
       <c r="O13">
@@ -1449,10 +1452,10 @@
       <c r="L14" s="3">
         <v>0.40636617704903982</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="5">
         <v>0.66666666666666674</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="5">
         <v>0.85714285714285721</v>
       </c>
       <c r="O14">
@@ -1483,32 +1486,32 @@
         <v>18.827826664452932</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>8115</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>278</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.87873794702795072</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.37492517853053242</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>0.4442703665467912</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>0.58558006593088918</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>0.73981838194826632</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>0.1859903791857547</v>
       </c>
       <c r="J15" s="3">
@@ -1520,37 +1523,37 @@
       <c r="L15" s="3">
         <v>0.1859903791857547</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="5">
         <v>0.38235294117647062</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="5">
         <v>0.41935483870967738</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>21</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>18</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="3">
         <v>31</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="3">
         <v>548</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="3">
         <v>16338</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="3">
         <v>15648</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="3">
         <v>185</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="3">
         <v>6.6051136363636367</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="3">
         <v>7.2443181818181817</v>
       </c>
     </row>
@@ -1591,10 +1594,10 @@
       <c r="L16" s="3">
         <v>0.18950896224720709</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="5">
         <v>0.30496453900709219</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="5">
         <v>0.56578947368421051</v>
       </c>
       <c r="O16">
@@ -1625,32 +1628,32 @@
         <v>20.415057915057911</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+    <row r="17" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>9100.5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>213.5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>0.9059136802396538</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0.25330396475770928</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.224609375</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>0.46128608923884512</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>0.1583333333333333</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>0.25675675675675669</v>
       </c>
       <c r="J17" s="3">
@@ -1662,37 +1665,37 @@
       <c r="L17" s="3">
         <v>0.25675675675675669</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="5">
         <v>1</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="5">
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>24</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="3">
         <v>26</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="3">
         <v>435</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="3">
         <v>18291</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="3">
         <v>18284</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="3">
         <v>19</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="3">
         <v>4.995730145175064</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="3">
         <v>0.38428693424423571</v>
       </c>
     </row>
@@ -1733,10 +1736,10 @@
       <c r="L18" s="3">
         <v>0.451671180676051</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="5">
         <v>0.64467005076142136</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="5">
         <v>0.8523489932885906</v>
       </c>
       <c r="O18">
@@ -1804,10 +1807,10 @@
       <c r="L19" s="3">
         <v>0.37322719017349332</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="5">
         <v>0.53475935828876997</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="5">
         <v>0.82644628099173556</v>
       </c>
       <c r="O19">
@@ -1838,32 +1841,32 @@
         <v>31.469708302169039</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="20" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>1461.5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>1076.5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>0.77541998231653397</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.95922066153149066</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>0.81458434174266037</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.75151722685158462</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>0.74038679673321228</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>0.67502318683574147</v>
       </c>
       <c r="J20" s="3">
@@ -1875,66 +1878,66 @@
       <c r="L20" s="3">
         <v>0.67311114094664015</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="5">
         <v>0.86792452830188682</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="5">
         <v>0.89320388349514568</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>14</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>11</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>103</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="3">
         <v>2164</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="3">
         <v>3010</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="3">
         <v>3841</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="3">
         <v>1558</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="3">
         <v>71.527777777777786</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="3">
         <v>73.611111111111114</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="21" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>10338</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>717</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>0.81928975716633201</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0.61869966436296409</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>0.50910517768683028</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.74000270802007351</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>0.81642294815359939</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>0.35938210410181898</v>
       </c>
       <c r="J21" s="3">
@@ -1946,66 +1949,66 @@
       <c r="L21" s="3">
         <v>0.35938210410181898</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="5">
         <v>0.53846153846153844</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="5">
         <v>0.6901408450704225</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>42</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>22</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="3">
         <v>71</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="3">
         <v>1494</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="3">
         <v>20714</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="3">
         <v>20197</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="3">
         <v>904</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="3">
         <v>11.50418579530111</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="3">
         <v>14.74480151228733</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+    <row r="22" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>8585</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>2647</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>0.82534741021476266</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0.84521382466720796</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0.79010276082854314</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.73772875288196371</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.84671559851461509</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>0.60588571154428195</v>
       </c>
       <c r="J22" s="3">
@@ -2017,66 +2020,66 @@
       <c r="L22" s="3">
         <v>0.60358777351605375</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="5">
         <v>0.84444444444444444</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="5">
         <v>0.84444444444444444</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>42</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>42</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="3">
         <v>270</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="3">
         <v>5329</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="3">
         <v>17235</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="3">
         <v>18707</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="3">
         <v>4344</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="3">
         <v>43.058385753521748</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="3">
         <v>43.058385753521748</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+    <row r="23" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>6033</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>1551</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>0.68500273672687473</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>0.86753865562528309</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>0.63773748012718601</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>0.76758334555600038</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>0.73680689359880114</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>0.52662774953679503</v>
       </c>
       <c r="J23" s="3">
@@ -2088,37 +2091,37 @@
       <c r="L23" s="3">
         <v>0.52662774953679503</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="5">
         <v>0.62841530054644812</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="5">
         <v>0.8098591549295775</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <v>68</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <v>27</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="3">
         <v>142</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="3">
         <v>3111</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="3">
         <v>12155</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="3">
         <v>12547</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="3">
         <v>2057</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="3">
         <v>33.464257659073063</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="3">
         <v>43.126472898664566</v>
       </c>
     </row>
@@ -2159,10 +2162,10 @@
       <c r="L24" s="3">
         <v>0.42589953647315792</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="5">
         <v>0.65061549601737867</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="5">
         <v>0.78505897771952815</v>
       </c>
       <c r="O24">
